--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_494__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_494__Reeval_LHS_Modell_1.3.xlsx
@@ -5879,13 +5879,13 @@
                   <c:v>63.22805023193359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.12728118896484</c:v>
+                  <c:v>59.12727355957031</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64.700927734375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.81446838378906</c:v>
+                  <c:v>60.81446075439453</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>63.20027923583984</c:v>
@@ -5897,16 +5897,16 @@
                   <c:v>69.24214172363281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.18244934082031</c:v>
+                  <c:v>57.18244171142578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.92160034179688</c:v>
+                  <c:v>57.92160797119141</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>73.75864410400391</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.10868072509766</c:v>
+                  <c:v>68.10867309570312</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>62.54315185546875</c:v>
@@ -5924,7 +5924,7 @@
                   <c:v>66.08650207519531</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.27394866943359</c:v>
+                  <c:v>62.27394104003906</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>62.85617828369141</c:v>
@@ -5936,7 +5936,7 @@
                   <c:v>59.64225769042969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>69.76914978027344</c:v>
+                  <c:v>69.76915740966797</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>68.09757995605469</c:v>
@@ -5945,7 +5945,7 @@
                   <c:v>62.56167602539062</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.48904418945312</c:v>
+                  <c:v>70.48905181884766</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>56.30619812011719</c:v>
@@ -5960,19 +5960,19 @@
                   <c:v>63.77123260498047</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.86453247070312</c:v>
+                  <c:v>62.86454010009766</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.17259216308594</c:v>
+                  <c:v>62.17257690429688</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>66.09378814697266</c:v>
+                  <c:v>66.09378051757812</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>69.89385986328125</c:v>
+                  <c:v>69.89385223388672</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66.78437042236328</c:v>
+                  <c:v>66.78436279296875</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>63.77494049072266</c:v>
@@ -5981,7 +5981,7 @@
                   <c:v>66.19684600830078</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72.92201232910156</c:v>
+                  <c:v>72.92202758789062</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>65.09953308105469</c:v>
@@ -5990,13 +5990,13 @@
                   <c:v>69.51812744140625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>66.0740966796875</c:v>
+                  <c:v>66.07408905029297</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>67.41397094726562</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>52.74540328979492</c:v>
+                  <c:v>52.74539947509766</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>56.60645294189453</c:v>
@@ -6005,22 +6005,22 @@
                   <c:v>64.54975128173828</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>73.70256042480469</c:v>
+                  <c:v>73.70256805419922</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>64.98167419433594</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.74317932128906</c:v>
+                  <c:v>57.74318695068359</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>65.13470458984375</c:v>
+                  <c:v>65.13471221923828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>70.72972106933594</c:v>
+                  <c:v>70.72972869873047</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63.42201232910156</c:v>
+                  <c:v>63.42200469970703</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>70.7275390625</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>65.35891723632812</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.33011627197266</c:v>
+                  <c:v>62.33012390136719</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>75.87973785400391</c:v>
@@ -6044,7 +6044,7 @@
                   <c:v>69.35231781005859</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>60.54140472412109</c:v>
+                  <c:v>60.54139709472656</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>63.32147979736328</c:v>
@@ -6059,13 +6059,13 @@
                   <c:v>62.11506652832031</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>67.43154144287109</c:v>
+                  <c:v>67.43153381347656</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>60.47319793701172</c:v>
+                  <c:v>60.47319030761719</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>72.16046142578125</c:v>
+                  <c:v>72.16046905517578</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>74.16820526123047</c:v>
@@ -6077,10 +6077,10 @@
                   <c:v>65.23779296875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>55.0975341796875</c:v>
+                  <c:v>55.09752655029297</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>58.44523620605469</c:v>
+                  <c:v>58.44524383544922</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>61.85372924804688</c:v>
@@ -6092,10 +6092,10 @@
                   <c:v>67.54590606689453</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.71254730224609</c:v>
+                  <c:v>62.71253967285156</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>64.90016174316406</c:v>
+                  <c:v>64.90016937255859</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>57.35369110107422</c:v>
@@ -6107,10 +6107,10 @@
                   <c:v>63.47898864746094</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>75.77666473388672</c:v>
+                  <c:v>75.77665710449219</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>66.65998077392578</c:v>
+                  <c:v>66.65997314453125</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>66.32598114013672</c:v>
@@ -6122,31 +6122,31 @@
                   <c:v>66.89237213134766</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>69.9078369140625</c:v>
+                  <c:v>69.90784454345703</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>69.28771209716797</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>54.84589385986328</c:v>
+                  <c:v>54.84588623046875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>70.05345916748047</c:v>
+                  <c:v>70.05345153808594</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>63.62187957763672</c:v>
+                  <c:v>63.62188720703125</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>74.52370452880859</c:v>
+                  <c:v>74.52371215820312</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>62.91374969482422</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>58.61733245849609</c:v>
+                  <c:v>58.61732482910156</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>54.98377227783203</c:v>
+                  <c:v>54.98377990722656</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>77.76941680908203</c:v>
@@ -6158,13 +6158,13 @@
                   <c:v>65.17265319824219</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>69.77300262451172</c:v>
+                  <c:v>69.77301025390625</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>64.68897247314453</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>65.93018341064453</c:v>
+                  <c:v>65.93019104003906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,7 +6923,7 @@
         <v>65.66840000000001</v>
       </c>
       <c r="F4">
-        <v>59.12728118896484</v>
+        <v>59.12727355957031</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6987,7 +6987,7 @@
         <v>71.60080000000001</v>
       </c>
       <c r="F6">
-        <v>60.81446838378906</v>
+        <v>60.81446075439453</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>57.18244934082031</v>
+        <v>57.18244171142578</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>73.7132</v>
       </c>
       <c r="F11">
-        <v>57.92160034179688</v>
+        <v>57.92160797119141</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>68.10868072509766</v>
+        <v>68.10867309570312</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>69.9408</v>
       </c>
       <c r="F19">
-        <v>62.27394866943359</v>
+        <v>62.27394104003906</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>74.9674</v>
       </c>
       <c r="F23">
-        <v>69.76914978027344</v>
+        <v>69.76915740966797</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>70.48904418945312</v>
+        <v>70.48905181884766</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>73.812</v>
       </c>
       <c r="F31">
-        <v>62.86453247070312</v>
+        <v>62.86454010009766</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>62.17259216308594</v>
+        <v>62.17257690429688</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>55.7118</v>
       </c>
       <c r="F33">
-        <v>66.09378814697266</v>
+        <v>66.09378051757812</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>86.2996</v>
       </c>
       <c r="F34">
-        <v>69.89385986328125</v>
+        <v>69.89385223388672</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.6055</v>
       </c>
       <c r="F35">
-        <v>66.78437042236328</v>
+        <v>66.78436279296875</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>59.0932</v>
       </c>
       <c r="F38">
-        <v>72.92201232910156</v>
+        <v>72.92202758789062</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>42.0409</v>
       </c>
       <c r="F41">
-        <v>66.0740966796875</v>
+        <v>66.07408905029297</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.9358</v>
       </c>
       <c r="F43">
-        <v>52.74540328979492</v>
+        <v>52.74539947509766</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>54.5106</v>
       </c>
       <c r="F46">
-        <v>73.70256042480469</v>
+        <v>73.70256805419922</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>65.1785</v>
       </c>
       <c r="F48">
-        <v>57.74317932128906</v>
+        <v>57.74318695068359</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>53.5828</v>
       </c>
       <c r="F49">
-        <v>65.13470458984375</v>
+        <v>65.13471221923828</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>70.9816</v>
       </c>
       <c r="F50">
-        <v>70.72972106933594</v>
+        <v>70.72972869873047</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>63.4987</v>
       </c>
       <c r="F51">
-        <v>63.42201232910156</v>
+        <v>63.42200469970703</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>62.33011627197266</v>
+        <v>62.33012390136719</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>54.8399</v>
       </c>
       <c r="F59">
-        <v>60.54140472412109</v>
+        <v>60.54139709472656</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>41.32</v>
       </c>
       <c r="F64">
-        <v>67.43154144287109</v>
+        <v>67.43153381347656</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>70.2961</v>
       </c>
       <c r="F65">
-        <v>60.47319793701172</v>
+        <v>60.47319030761719</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>66.16630000000001</v>
       </c>
       <c r="F66">
-        <v>72.16046142578125</v>
+        <v>72.16046905517578</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>55.0975341796875</v>
+        <v>55.09752655029297</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>48.8963</v>
       </c>
       <c r="F71">
-        <v>58.44523620605469</v>
+        <v>58.44524383544922</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>72.8365</v>
       </c>
       <c r="F75">
-        <v>62.71254730224609</v>
+        <v>62.71253967285156</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>64.90016174316406</v>
+        <v>64.90016937255859</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>66.4979</v>
       </c>
       <c r="F80">
-        <v>75.77666473388672</v>
+        <v>75.77665710449219</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>66.65998077392578</v>
+        <v>66.65997314453125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>43.913</v>
       </c>
       <c r="F85">
-        <v>69.9078369140625</v>
+        <v>69.90784454345703</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>57.7404</v>
       </c>
       <c r="F87">
-        <v>54.84589385986328</v>
+        <v>54.84588623046875</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>63.2242</v>
       </c>
       <c r="F88">
-        <v>70.05345916748047</v>
+        <v>70.05345153808594</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>37.9179</v>
       </c>
       <c r="F89">
-        <v>63.62187957763672</v>
+        <v>63.62188720703125</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>65.8325</v>
       </c>
       <c r="F90">
-        <v>74.52370452880859</v>
+        <v>74.52371215820312</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>58.61733245849609</v>
+        <v>58.61732482910156</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>77.9066</v>
       </c>
       <c r="F93">
-        <v>54.98377227783203</v>
+        <v>54.98377990722656</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>81.25369999999999</v>
       </c>
       <c r="F97">
-        <v>69.77300262451172</v>
+        <v>69.77301025390625</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>89.25320000000001</v>
       </c>
       <c r="F99">
-        <v>65.93018341064453</v>
+        <v>65.93019104003906</v>
       </c>
     </row>
     <row r="100" spans="1:6">
